--- a/app/data/absenteeism_data_25.xlsx
+++ b/app/data/absenteeism_data_25.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>79959</v>
+        <v>79538</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcelo Barros</t>
+          <t>Kaique Viana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>7957.72</v>
+        <v>5650.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>85570</v>
+        <v>82832</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Vitória da Mota</t>
+          <t>Cecília Ferreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45095</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>4858.98</v>
+        <v>5030.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61468</v>
+        <v>10735</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Fernanda Castro</t>
+          <t>Vitor Hugo Jesus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,85 +552,85 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>5877.03</v>
+        <v>2790.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3125</v>
+        <v>38339</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Julia Nunes</t>
+          <t>Gabrielly Fogaça</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>3417.35</v>
+        <v>2504.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45741</v>
+        <v>51343</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Juliana Jesus</t>
+          <t>Alice Silva</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>2520.16</v>
+        <v>4781.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>621</v>
+        <v>12534</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beatriz Pereira</t>
+          <t>Raquel Moura</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,126 +642,126 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45100</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>6663.65</v>
+        <v>12048.55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>40661</v>
+        <v>1683</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Maria Sophia Campos</t>
+          <t>Sra. Amanda Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45099</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>6995.7</v>
+        <v>12080.19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66855</v>
+        <v>24829</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Moura</t>
+          <t>Sr. Davi Lucca Cavalcanti</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45085</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>12452.79</v>
+        <v>4722.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17160</v>
+        <v>25815</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Otávio Araújo</t>
+          <t>Cauê Mendes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>9776.700000000001</v>
+        <v>9698.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36971</v>
+        <v>10060</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lorenzo Novaes</t>
+          <t>Clarice da Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>10289.69</v>
+        <v>6549.08</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_25.xlsx
+++ b/app/data/absenteeism_data_25.xlsx
@@ -476,185 +476,185 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22774</v>
+        <v>13694</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Eduardo Santos</t>
+          <t>Maria Cecília Almeida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>7172.99</v>
+        <v>12185.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>654</v>
+        <v>46468</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Júlia Lopes</t>
+          <t>Sr. Levi Novaes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>3701.93</v>
+        <v>9432.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28126</v>
+        <v>15994</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Valentina Monteiro</t>
+          <t>Ana Carolina Rodrigues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>8835.370000000001</v>
+        <v>4211.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68159</v>
+        <v>63995</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernanda Silveira</t>
+          <t>Srta. Emilly Araújo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45096</v>
+        <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>6624.21</v>
+        <v>7874.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>83191</v>
+        <v>61631</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Nicolas da Cunha</t>
+          <t>Alícia Martins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>7131.45</v>
+        <v>6671.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84188</v>
+        <v>69119</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Cunha</t>
+          <t>Sr. Leonardo Araújo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>7899.45</v>
+        <v>7920.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>44671</v>
+        <v>25469</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Diego Duarte</t>
+          <t>Matheus das Neves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,89 +664,89 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>5072.74</v>
+        <v>6081.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>54614</v>
+        <v>2630</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sabrina da Conceição</t>
+          <t>João Guilherme da Mota</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>3042.11</v>
+        <v>11666.79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84243</v>
+        <v>42919</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Raul Moraes</t>
+          <t>Srta. Milena da Mata</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45080</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>4686.66</v>
+        <v>6141.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>75390</v>
+        <v>73439</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Olivia Cardoso</t>
+          <t>Joaquim Farias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>10355.22</v>
+        <v>11906.36</v>
       </c>
     </row>
   </sheetData>
